--- a/console/Networking/iaas-network/pipMixinsXlsx/pip_list.xlsx
+++ b/console/Networking/iaas-network/pipMixinsXlsx/pip_list.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -2040,18 +2045,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Your EIP(s) need(s) to be upgraded. To help you get more stable and excellent public network access service, JD Cloud has launched a new BGP IP product, and it is recommended that you upgrade the EIP in time.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Details</t>
     </r>
   </si>
@@ -2100,42 +2093,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Find XX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>resources that matches the search and filter criteria,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Please change your search keyword or'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Return</t>
     </r>
   </si>
@@ -2184,18 +2141,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IP provider</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Availability Zone</t>
     </r>
   </si>
@@ -2292,18 +2237,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Corresponding to New IP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Full Availability Zone'</t>
     </r>
   </si>
@@ -2316,30 +2249,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Bound</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Has not been bound</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">'By Traffic' </t>
     </r>
   </si>
@@ -2424,18 +2333,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Cannot delete EIP, please disassociate its associated resources'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Delete</t>
     </r>
   </si>
@@ -2460,42 +2357,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'The quota in this region is full'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Copy by One Click</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No EIP Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Please select resources'</t>
     </r>
   </si>
@@ -2580,30 +2441,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dear user, you are about to perform public IP one-click replication operation. Before clicking “OK” button, please ensure that you understand the announcement content of this activity.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Conform to perform one-click replication public IP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Virtual Machines'</t>
     </r>
   </si>
@@ -2736,18 +2573,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>‘This IP only supports association with virtual machine or load balancer or container within the same availability zone within the same availability zone. If you need to use multiple availability zone function, please directly switch to new BGP IP of JD Cloud’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">‘Conform to disassociate public IP </t>
     </r>
   </si>
@@ -2760,18 +2585,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">'Secondary' </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>'Disassociated</t>
     </r>
   </si>
@@ -2905,18 +2718,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Downloading, please wait’</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Migration request sending failure'</t>
     </r>
   </si>
   <si>
@@ -2924,27 +2725,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘Deleted Public IP </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘Submitted public IP deletion task! Please refresh the page later'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">‘Disassociated elastic network interface from public IP  </t>
+    <t>Migration request sent'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Disassociated EIP </t>
+    <t>You have EIP needs to be upgraded. To help you get more stable and excellent public network access service, JD Cloud has launched a new BGP IP product, and it is recommended that you upgrade the EIP in time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Began to export public IP list’</t>
+    <t>Find resources that meet search and filter criteria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Migration request sent'</t>
+    <t>record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please change your search keywords or'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISP Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corresponding to the new IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not associated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Cannot delete EIP, please disassociate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> its associated resources'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The quota in this region has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reached the limitation'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy by one click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No EIP data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dear user, you are about to perform one-click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> recreation of BGP IP to upgrade your None-BGP IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Before clicking **OK**, please ensure that you understand the announcement content of this activity.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conform to perform one-click recreation of BGP IP</t>
+  </si>
+  <si>
+    <t>Public IP deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This IP only supports association with Virtual Machine or Load Balancer within the same availability zone. If you need to associate with multiple availability zones  function, please directly switch to new BGP IP of JD Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Elastic network interface has been disassociated from public IP  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">from' </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIP disassociated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public IP list exported'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed to send migration request'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2952,7 +2883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2965,6 +2896,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2988,7 +2926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2996,9 +2934,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3337,16 +3290,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="A1:C83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="52.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3310,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3368,18 +3321,18 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3387,10 +3340,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3398,10 +3351,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3409,10 +3362,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3420,43 +3373,43 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3464,10 +3417,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3475,10 +3428,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3486,10 +3439,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3497,21 +3450,21 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3519,10 +3472,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3530,10 +3483,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -3541,10 +3494,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3552,10 +3505,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3563,10 +3516,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3574,10 +3527,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3585,10 +3538,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -3596,21 +3549,21 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -3618,32 +3571,32 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -3651,10 +3604,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -3662,10 +3615,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -3673,10 +3626,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -3684,10 +3637,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -3695,10 +3648,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -3706,10 +3659,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -3717,21 +3670,21 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -3739,10 +3692,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -3750,43 +3703,43 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3794,10 +3747,10 @@
         <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -3805,10 +3758,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3816,10 +3769,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -3827,10 +3780,10 @@
         <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -3838,10 +3791,10 @@
         <v>89</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -3849,10 +3802,10 @@
         <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -3860,10 +3813,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -3871,32 +3824,32 @@
         <v>95</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3904,10 +3857,10 @@
         <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -3915,10 +3868,10 @@
         <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -3926,10 +3879,10 @@
         <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3937,10 +3890,10 @@
         <v>107</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -3948,10 +3901,10 @@
         <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3959,10 +3912,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -3970,10 +3923,10 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -3981,10 +3934,10 @@
         <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -3992,10 +3945,10 @@
         <v>117</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -4003,10 +3956,10 @@
         <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -4014,21 +3967,21 @@
         <v>121</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -4036,32 +3989,32 @@
         <v>125</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -4069,21 +4022,21 @@
         <v>131</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -4091,10 +4044,10 @@
         <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -4102,10 +4055,10 @@
         <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -4113,10 +4066,10 @@
         <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -4124,10 +4077,10 @@
         <v>141</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -4138,7 +4091,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -4146,10 +4099,10 @@
         <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -4157,10 +4110,10 @@
         <v>147</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -4168,10 +4121,10 @@
         <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -4179,10 +4132,10 @@
         <v>151</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -4190,10 +4143,10 @@
         <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -4201,10 +4154,10 @@
         <v>155</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -4212,10 +4165,10 @@
         <v>157</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -4223,21 +4176,21 @@
         <v>159</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -4245,23 +4198,24 @@
         <v>163</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>241</v>
+      <c r="C83" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B83" numberStoredAsText="1"/>
   </ignoredErrors>
